--- a/data/output/Pedido_Semana_07_13022026_deco_interior.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_deco_interior.xlsx
@@ -737,10 +737,10 @@
       </c>
       <c r="O3" s="7" t="inlineStr"/>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" hidden="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>6104060004</t>
@@ -814,25 +814,25 @@
       </c>
       <c r="O4" s="7" t="inlineStr"/>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>6201060028</t>
@@ -891,10 +891,10 @@
       </c>
       <c r="O5" s="7" t="inlineStr"/>
       <c r="P5" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" hidden="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>6201120004</t>
@@ -968,10 +968,10 @@
       </c>
       <c r="O6" s="7" t="inlineStr"/>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>6302020068</t>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>4.68</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" hidden="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>6302020082</t>
@@ -1589,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>10.35</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>6.21</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6.9</v>
+        <v>3.45</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>4.14</v>
+        <v>2.07</v>
       </c>
       <c r="O15" s="7" t="inlineStr">
         <is>
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="P15" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1780,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>6302020141</t>
@@ -1832,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>7.56</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>6302020181</t>
@@ -2075,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>4.14</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" hidden="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>6302140010</t>
@@ -2153,13 +2153,13 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>5.31</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="inlineStr">
         <is>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="P21" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" hidden="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>6302140011</t>
@@ -2237,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>10.62</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="inlineStr">
         <is>
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" hidden="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>6302140014</t>
@@ -2279,237 +2279,237 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">15CM     </t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 15%</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>6302140014</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>MACETA PRODUCCION MADAGASCAR ORQUIDEA TRANS</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">17CM     </t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="n">
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H24" s="4" t="n">
         <v>0.48</v>
       </c>
-      <c r="I23" s="5" t="inlineStr">
+      <c r="I24" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 15%</t>
         </is>
       </c>
-      <c r="K23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N23" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O23" s="7" t="inlineStr">
+      <c r="K24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
         </is>
       </c>
-      <c r="P23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>6302140014</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>MACETA PRODUCCION MADAGASCAR ORQUIDEA TRANS</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="P24" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" hidden="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>6302140020</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>PLATO REDONDO TRANSPARENTE</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">15CM     </t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="I24" s="5" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 15%</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="N24" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="O24" s="7" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 19%</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
         </is>
       </c>
-      <c r="P24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>6302140020</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>PLATO REDONDO TRANSPARENTE</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18CM     </t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 15%</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="N25" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O25" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARTEVASI S.A.                                                                                                           </t>
-        </is>
-      </c>
       <c r="P25" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>6302140020</t>
@@ -2558,13 +2558,13 @@
         <v>2</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>4</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>6302140020</t>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15CM     </t>
+          <t xml:space="preserve">18CM     </t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
@@ -2632,20 +2632,20 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K27" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2653,22 +2653,22 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>9.699999999999999</v>
@@ -2752,7 +2752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>6201010100</t>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>219.38</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>131.63</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2815,22 +2815,22 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,13 +2882,13 @@
         <v>2</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>129</v>
+        <v>64.5</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>77.40000000000001</v>
+        <v>38.7</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>30.6</v>
+        <v>10.2</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3319,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>6302120028</t>
@@ -3371,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>8.949999999999999</v>
+        <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>5.37</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="inlineStr">
         <is>
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="P36" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3805,7 +3805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>6302020188</t>
@@ -3857,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="6" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>20.88</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="inlineStr">
         <is>
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="P42" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" hidden="1">
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
           <t>6203010023</t>
@@ -4667,10 +4667,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="6" t="n">
-        <v>14.55</v>
+        <v>0</v>
       </c>
       <c r="N52" s="4" t="n">
-        <v>8.73</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="inlineStr">
         <is>
@@ -4678,10 +4678,10 @@
         </is>
       </c>
       <c r="P52" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5101,7 +5101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
           <t>6401090006</t>
@@ -5153,10 +5153,10 @@
         <v>0</v>
       </c>
       <c r="M58" s="6" t="n">
-        <v>11.45</v>
+        <v>0</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>6.87</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7" t="inlineStr">
         <is>
@@ -5164,10 +5164,10 @@
         </is>
       </c>
       <c r="P58" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="U58" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" hidden="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
           <t>6401090119</t>
@@ -5234,10 +5234,10 @@
         <v>0</v>
       </c>
       <c r="M59" s="6" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>6.66</v>
+        <v>0</v>
       </c>
       <c r="O59" s="7" t="inlineStr">
         <is>
@@ -5245,10 +5245,10 @@
         </is>
       </c>
       <c r="P59" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>0</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5587,7 +5587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>6401140006</t>
@@ -5639,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="M64" s="6" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="N64" s="4" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="O64" s="7" t="inlineStr">
         <is>
@@ -5650,10 +5650,10 @@
         </is>
       </c>
       <c r="P64" s="3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R64" s="2" t="n">
         <v>0</v>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -5749,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
           <t>6302070077</t>
@@ -5801,10 +5801,10 @@
         <v>0</v>
       </c>
       <c r="M66" s="6" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="O66" s="7" t="inlineStr">
         <is>
@@ -5812,10 +5812,10 @@
         </is>
       </c>
       <c r="P66" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q66" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R66" s="2" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="U66" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" hidden="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
           <t>6403060124</t>
@@ -5882,10 +5882,10 @@
         <v>0</v>
       </c>
       <c r="M67" s="6" t="n">
-        <v>26.18</v>
+        <v>0</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>15.71</v>
+        <v>0</v>
       </c>
       <c r="O67" s="7" t="inlineStr">
         <is>
@@ -5893,10 +5893,10 @@
         </is>
       </c>
       <c r="P67" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R67" s="2" t="n">
         <v>0</v>
@@ -5908,10 +5908,10 @@
         <v>0</v>
       </c>
       <c r="U67" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" hidden="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
           <t>6403060126</t>
@@ -5963,10 +5963,10 @@
         <v>0</v>
       </c>
       <c r="M68" s="6" t="n">
-        <v>17.75</v>
+        <v>0</v>
       </c>
       <c r="N68" s="4" t="n">
-        <v>10.65</v>
+        <v>0</v>
       </c>
       <c r="O68" s="7" t="inlineStr">
         <is>
@@ -5974,10 +5974,10 @@
         </is>
       </c>
       <c r="P68" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q68" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R68" s="2" t="n">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6125,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="M70" s="6" t="n">
-        <v>31.85</v>
+        <v>15.92</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>19.11</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="O70" s="7" t="inlineStr">
         <is>
@@ -6136,10 +6136,10 @@
         </is>
       </c>
       <c r="P70" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R70" s="2" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -6235,7 +6235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
           <t>6103090050</t>
@@ -6287,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="M72" s="6" t="n">
-        <v>93.52</v>
+        <v>0</v>
       </c>
       <c r="N72" s="4" t="n">
-        <v>56.11</v>
+        <v>0</v>
       </c>
       <c r="O72" s="7" t="inlineStr">
         <is>
@@ -6298,10 +6298,10 @@
         </is>
       </c>
       <c r="P72" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R72" s="2" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6329,141 +6329,141 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">12I3CM   </t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I73" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N73" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="O73" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KAEMINGK                                                                                                                </t>
+        </is>
+      </c>
+      <c r="P73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" hidden="1">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>6104080008</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>VELA TALLADA MECHA LED CREMA 7,5CM DIAMETRO</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">17I3CM   </t>
         </is>
       </c>
-      <c r="D73" s="2" t="inlineStr">
+      <c r="D74" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">UNICO   </t>
         </is>
       </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F73" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="4" t="n">
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>deco_interior</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4" t="n">
         <v>5.22</v>
       </c>
-      <c r="H73" s="4" t="n">
+      <c r="H74" s="4" t="n">
         <v>2.09</v>
       </c>
-      <c r="I73" s="5" t="inlineStr">
+      <c r="I74" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
+      <c r="J74" s="2" t="inlineStr">
         <is>
           <t>AUMENTAR 19%</t>
         </is>
       </c>
-      <c r="K73" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" s="6" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="N73" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="O73" s="7" t="inlineStr">
+      <c r="K74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">KAEMINGK                                                                                                                </t>
         </is>
       </c>
-      <c r="P73" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>6104080008</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>VELA TALLADA MECHA LED CREMA 7,5CM DIAMETRO</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12I3CM   </t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>deco_interior</t>
-        </is>
-      </c>
-      <c r="F74" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H74" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I74" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 19%</t>
-        </is>
-      </c>
-      <c r="K74" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" s="6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="N74" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="O74" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KAEMINGK                                                                                                                </t>
-        </is>
-      </c>
       <c r="P74" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q74" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R74" s="2" t="n">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6530,10 +6530,10 @@
         <v>1</v>
       </c>
       <c r="M75" s="6" t="n">
-        <v>100.1</v>
+        <v>91</v>
       </c>
       <c r="N75" s="4" t="n">
-        <v>60.06</v>
+        <v>54.6</v>
       </c>
       <c r="O75" s="7" t="inlineStr">
         <is>
@@ -6541,10 +6541,10 @@
         </is>
       </c>
       <c r="P75" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R75" s="2" t="n">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -6608,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" s="6" t="n">
         <v>18.9</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
           <t>6402040046</t>
@@ -6854,10 +6854,10 @@
         <v>0</v>
       </c>
       <c r="M79" s="6" t="n">
-        <v>15.45</v>
+        <v>0</v>
       </c>
       <c r="N79" s="4" t="n">
-        <v>9.27</v>
+        <v>0</v>
       </c>
       <c r="O79" s="7" t="inlineStr">
         <is>
@@ -6865,25 +6865,25 @@
         </is>
       </c>
       <c r="P79" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q79" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R79" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" hidden="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
           <t>6402040077</t>
@@ -6935,10 +6935,10 @@
         <v>0</v>
       </c>
       <c r="M80" s="6" t="n">
-        <v>65.62</v>
+        <v>0</v>
       </c>
       <c r="N80" s="4" t="n">
-        <v>39.37</v>
+        <v>0</v>
       </c>
       <c r="O80" s="7" t="inlineStr">
         <is>
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="P80" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R80" s="2" t="n">
         <v>0</v>
@@ -6961,10 +6961,10 @@
         <v>0</v>
       </c>
       <c r="U80" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" hidden="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
           <t>6404060037</t>
@@ -7016,10 +7016,10 @@
         <v>0</v>
       </c>
       <c r="M81" s="6" t="n">
-        <v>61.6</v>
+        <v>0</v>
       </c>
       <c r="N81" s="4" t="n">
-        <v>36.96</v>
+        <v>0</v>
       </c>
       <c r="O81" s="7" t="inlineStr">
         <is>
@@ -7027,10 +7027,10 @@
         </is>
       </c>
       <c r="P81" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q81" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R81" s="2" t="n">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="U81" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" hidden="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
           <t>6201010007</t>
@@ -7097,10 +7097,10 @@
         <v>0</v>
       </c>
       <c r="M82" s="6" t="n">
-        <v>38.62</v>
+        <v>0</v>
       </c>
       <c r="N82" s="4" t="n">
-        <v>23.17</v>
+        <v>0</v>
       </c>
       <c r="O82" s="7" t="inlineStr">
         <is>
@@ -7108,10 +7108,10 @@
         </is>
       </c>
       <c r="P82" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q82" s="3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R82" s="2" t="n">
         <v>0</v>
@@ -7123,10 +7123,10 @@
         <v>0</v>
       </c>
       <c r="U82" s="8" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" hidden="1">
       <c r="A83" s="2" t="inlineStr">
         <is>
           <t>6201010019</t>
@@ -7189,10 +7189,10 @@
         </is>
       </c>
       <c r="P83" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q83" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R83" s="2" t="n">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7279,16 +7279,16 @@
         <v>0</v>
       </c>
       <c r="S84" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T84" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U84" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" hidden="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
           <t>6201010115</t>
@@ -7340,10 +7340,10 @@
         <v>2</v>
       </c>
       <c r="M85" s="6" t="n">
-        <v>152.8</v>
+        <v>0</v>
       </c>
       <c r="N85" s="4" t="n">
-        <v>91.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="O85" s="7" t="inlineStr">
         <is>
@@ -7351,10 +7351,10 @@
         </is>
       </c>
       <c r="P85" s="3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q85" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R85" s="2" t="n">
         <v>0</v>
@@ -7366,10 +7366,10 @@
         <v>0</v>
       </c>
       <c r="U85" s="8" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" hidden="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
           <t>6201010122</t>
@@ -7432,10 +7432,10 @@
         </is>
       </c>
       <c r="P86" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q86" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R86" s="2" t="n">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7693,7 +7693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
           <t>6201020030</t>
@@ -7745,10 +7745,10 @@
         <v>0</v>
       </c>
       <c r="M90" s="6" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="N90" s="4" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="O90" s="7" t="inlineStr">
         <is>
@@ -7756,10 +7756,10 @@
         </is>
       </c>
       <c r="P90" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q90" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R90" s="2" t="n">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -7823,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" s="6" t="n">
         <v>12.6</v>
@@ -7855,7 +7855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
           <t>6201040006</t>
@@ -7907,10 +7907,10 @@
         <v>0</v>
       </c>
       <c r="M92" s="6" t="n">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="N92" s="4" t="n">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="O92" s="7" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="P92" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q92" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R92" s="2" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -7988,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="M93" s="6" t="n">
-        <v>43.88</v>
+        <v>29.25</v>
       </c>
       <c r="N93" s="4" t="n">
-        <v>26.33</v>
+        <v>17.55</v>
       </c>
       <c r="O93" s="7" t="inlineStr">
         <is>
@@ -7999,10 +7999,10 @@
         </is>
       </c>
       <c r="P93" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R93" s="2" t="n">
         <v>0</v>
@@ -8014,10 +8014,10 @@
         <v>0</v>
       </c>
       <c r="U93" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" hidden="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
           <t>6201050022</t>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="P94" s="3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q94" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R94" s="2" t="n">
         <v>0</v>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -8150,10 +8150,10 @@
         <v>2</v>
       </c>
       <c r="M95" s="6" t="n">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="N95" s="4" t="n">
-        <v>85.8</v>
+        <v>7.8</v>
       </c>
       <c r="O95" s="7" t="inlineStr">
         <is>
@@ -8161,10 +8161,10 @@
         </is>
       </c>
       <c r="P95" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q95" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R95" s="2" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="U95" s="8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -8309,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M97" s="6" t="n">
         <v>27</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
           <t>6203010031</t>
@@ -8555,10 +8555,10 @@
         <v>0</v>
       </c>
       <c r="M100" s="6" t="n">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="O100" s="7" t="inlineStr">
         <is>
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="P100" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q100" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R100" s="2" t="n">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -9295,25 +9295,25 @@
         </is>
       </c>
       <c r="P109" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R109" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S109" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U109" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
           <t>6401090009</t>
@@ -9365,10 +9365,10 @@
         <v>0</v>
       </c>
       <c r="M110" s="6" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="O110" s="7" t="inlineStr">
         <is>
@@ -9376,10 +9376,10 @@
         </is>
       </c>
       <c r="P110" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q110" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R110" s="2" t="n">
         <v>0</v>
@@ -9391,10 +9391,10 @@
         <v>0</v>
       </c>
       <c r="U110" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" hidden="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
           <t>6401090010</t>
@@ -9446,10 +9446,10 @@
         <v>0</v>
       </c>
       <c r="M111" s="6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O111" s="7" t="inlineStr">
         <is>
@@ -9457,25 +9457,25 @@
         </is>
       </c>
       <c r="P111" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q111" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R111" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S111" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T111" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U111" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" hidden="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
           <t>6401090052</t>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="M112" s="6" t="n">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="N112" s="4" t="n">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="O112" s="7" t="inlineStr">
         <is>
@@ -9538,10 +9538,10 @@
         </is>
       </c>
       <c r="P112" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q112" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R112" s="2" t="n">
         <v>0</v>
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" hidden="1">
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="L113" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113" s="6" t="n">
         <v>0</v>
@@ -9718,7 +9718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
           <t>6401090199</t>
@@ -9770,10 +9770,10 @@
         <v>0</v>
       </c>
       <c r="M115" s="6" t="n">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="N115" s="4" t="n">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="O115" s="7" t="inlineStr">
         <is>
@@ -9781,10 +9781,10 @@
         </is>
       </c>
       <c r="P115" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q115" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R115" s="2" t="n">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="U115" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -9880,7 +9880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
           <t>6401100007</t>
@@ -9932,10 +9932,10 @@
         <v>0</v>
       </c>
       <c r="M117" s="6" t="n">
-        <v>13.12</v>
+        <v>0</v>
       </c>
       <c r="N117" s="4" t="n">
-        <v>7.87</v>
+        <v>0</v>
       </c>
       <c r="O117" s="7" t="inlineStr">
         <is>
@@ -9943,10 +9943,10 @@
         </is>
       </c>
       <c r="P117" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q117" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R117" s="2" t="n">
         <v>0</v>
@@ -9958,10 +9958,10 @@
         <v>0</v>
       </c>
       <c r="U117" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" hidden="1">
       <c r="A118" s="2" t="inlineStr">
         <is>
           <t>6401140001</t>
@@ -10013,10 +10013,10 @@
         <v>0</v>
       </c>
       <c r="M118" s="6" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="N118" s="4" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O118" s="7" t="inlineStr">
         <is>
@@ -10024,10 +10024,10 @@
         </is>
       </c>
       <c r="P118" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q118" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R118" s="2" t="n">
         <v>0</v>
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -10204,7 +10204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
           <t>6401040034</t>
@@ -10253,13 +10253,13 @@
         <v>1</v>
       </c>
       <c r="L121" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121" s="6" t="n">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="N121" s="4" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="O121" s="7" t="inlineStr">
         <is>
@@ -10267,10 +10267,10 @@
         </is>
       </c>
       <c r="P121" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q121" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R121" s="2" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="U121" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" hidden="1">
       <c r="A122" s="2" t="inlineStr">
         <is>
           <t>6401040044</t>
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="M122" s="6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N122" s="4" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O122" s="7" t="inlineStr">
         <is>
@@ -10348,10 +10348,10 @@
         </is>
       </c>
       <c r="P122" s="3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q122" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R122" s="2" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="U122" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" hidden="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
           <t>6401040047</t>
@@ -10418,10 +10418,10 @@
         <v>0</v>
       </c>
       <c r="M123" s="6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N123" s="4" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O123" s="7" t="inlineStr">
         <is>
@@ -10429,10 +10429,10 @@
         </is>
       </c>
       <c r="P123" s="3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q123" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R123" s="2" t="n">
         <v>0</v>
@@ -10444,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="U123" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" hidden="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
           <t>6401040050</t>
@@ -10499,10 +10499,10 @@
         <v>0</v>
       </c>
       <c r="M124" s="6" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="N124" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="O124" s="7" t="inlineStr">
         <is>
@@ -10510,25 +10510,25 @@
         </is>
       </c>
       <c r="P124" s="3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q124" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R124" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S124" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T124" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U124" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" hidden="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
           <t>6401040053</t>
@@ -10580,10 +10580,10 @@
         <v>0</v>
       </c>
       <c r="M125" s="6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N125" s="4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="O125" s="7" t="inlineStr">
         <is>
@@ -10591,10 +10591,10 @@
         </is>
       </c>
       <c r="P125" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q125" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R125" s="2" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="U125" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" hidden="1">
       <c r="A126" s="2" t="inlineStr">
         <is>
           <t>6401040057</t>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="M126" s="6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N126" s="4" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="O126" s="7" t="inlineStr">
         <is>
@@ -10672,10 +10672,10 @@
         </is>
       </c>
       <c r="P126" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q126" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R126" s="2" t="n">
         <v>0</v>
@@ -10687,10 +10687,10 @@
         <v>0</v>
       </c>
       <c r="U126" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" hidden="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
           <t>6401040060</t>
@@ -10742,10 +10742,10 @@
         <v>0</v>
       </c>
       <c r="M127" s="6" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="N127" s="4" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="O127" s="7" t="inlineStr">
         <is>
@@ -10753,10 +10753,10 @@
         </is>
       </c>
       <c r="P127" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q127" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R127" s="2" t="n">
         <v>0</v>
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="U127" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -10904,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="M129" s="6" t="n">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="N129" s="4" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="O129" s="7" t="inlineStr">
         <is>
@@ -10915,10 +10915,10 @@
         </is>
       </c>
       <c r="P129" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q129" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R129" s="2" t="n">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="U129" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -10985,10 +10985,10 @@
         <v>0</v>
       </c>
       <c r="M130" s="6" t="n">
-        <v>18.75</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="N130" s="4" t="n">
-        <v>11.25</v>
+        <v>5.63</v>
       </c>
       <c r="O130" s="7" t="inlineStr">
         <is>
@@ -10996,10 +10996,10 @@
         </is>
       </c>
       <c r="P130" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R130" s="2" t="n">
         <v>0</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="U130" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="M131" s="6" t="n">
-        <v>24.75</v>
+        <v>12.38</v>
       </c>
       <c r="N131" s="4" t="n">
-        <v>14.85</v>
+        <v>7.43</v>
       </c>
       <c r="O131" s="7" t="inlineStr">
         <is>
@@ -11077,10 +11077,10 @@
         </is>
       </c>
       <c r="P131" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R131" s="2" t="n">
         <v>0</v>
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="U131" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -11147,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="M132" s="6" t="n">
-        <v>31.25</v>
+        <v>15.62</v>
       </c>
       <c r="N132" s="4" t="n">
-        <v>18.75</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="O132" s="7" t="inlineStr">
         <is>
@@ -11158,10 +11158,10 @@
         </is>
       </c>
       <c r="P132" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R132" s="2" t="n">
         <v>0</v>
@@ -11173,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="U132" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133"/>
@@ -11191,7 +11191,7 @@
         </is>
       </c>
       <c r="C135" s="5" t="n">
-        <v>391</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="C137" s="5" t="inlineStr">
         <is>
-          <t>2879.35€</t>
+          <t>1423.13€</t>
         </is>
       </c>
     </row>
@@ -11311,7 +11311,7 @@
         </is>
       </c>
       <c r="C146" s="5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_07_13022026_deco_interior.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_deco_interior.xlsx
@@ -2441,7 +2441,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">15CM     </t>
+          <t xml:space="preserve">13CM     </t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="F25" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>0.58</v>
@@ -2465,16 +2465,16 @@
       </c>
       <c r="I25" s="5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 19%</t>
+          <t>REDUCIR 25%</t>
         </is>
       </c>
       <c r="K25" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="3" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>0</v>
@@ -2500,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T25" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U25" s="8" t="n">
         <v>0</v>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">13CM     </t>
+          <t xml:space="preserve">15CM     </t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="F26" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4" t="n">
         <v>0.58</v>
@@ -2546,16 +2546,16 @@
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 25%</t>
+          <t>REDUCIR 19%</t>
         </is>
       </c>
       <c r="K26" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Q26" s="3" t="n">
         <v>0</v>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U26" s="8" t="n">
         <v>0</v>
